--- a/testfiles/Tests.xlsx
+++ b/testfiles/Tests.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpazzula\OneDrive - dumac.duke.edu\Documents\FinTech-545-Fall2025\testfiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B31C93-206E-4E64-980E-4155A2D902A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30240" windowHeight="13360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +30,7 @@
     <definedName name="DUMAC_POOL_TDE">"TDE"</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -62,15 +52,15 @@
     <t>Test</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>Input</t>
   </si>
   <si>
     <t>Output</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Covariance Missing data, skip missing rows</t>
   </si>
   <si>
@@ -89,54 +79,57 @@
     <t>EW Covariance, lambda=0.97</t>
   </si>
   <si>
+    <t>test2.csv</t>
+  </si>
+  <si>
     <t>EW Correlation, lambd=0.94</t>
   </si>
   <si>
-    <t>test2.csv</t>
+    <t>Covariance with EW Variance (l=0.97), EW Correlation (l=0.94)</t>
   </si>
   <si>
     <t>near_psd covariance</t>
   </si>
   <si>
+    <t>testout_1.3.csv</t>
+  </si>
+  <si>
     <t>near_psd correlation</t>
   </si>
   <si>
+    <t>testout_1.4.csv</t>
+  </si>
+  <si>
     <t>Higham covariance</t>
   </si>
   <si>
     <t>Higham correlation</t>
   </si>
   <si>
-    <t>testout_1.3.csv</t>
-  </si>
-  <si>
-    <t>testout_1.4.csv</t>
-  </si>
-  <si>
     <t>chol_psd</t>
   </si>
   <si>
     <t>testout_3.1.csv</t>
   </si>
   <si>
+    <t>Normal Simulation PD Input 0 mean - 100,000 simulations, compare input vs output covariance</t>
+  </si>
+  <si>
     <t>test5_1.csv</t>
   </si>
   <si>
+    <t>Normal Simulation PSD Input 0 mean - 100,000 simulations, compare input vs output covariance</t>
+  </si>
+  <si>
     <t>test5_2.csv</t>
   </si>
   <si>
+    <t>Normal Simulation nonPSD Input, 0 mean, near_psd fix - 100,000 simulations, compare input vs output covariance</t>
+  </si>
+  <si>
     <t>test5_3.csv</t>
   </si>
   <si>
-    <t>Normal Simulation PD Input 0 mean - 100,000 simulations, compare input vs output covariance</t>
-  </si>
-  <si>
-    <t>Normal Simulation PSD Input 0 mean - 100,000 simulations, compare input vs output covariance</t>
-  </si>
-  <si>
-    <t>Normal Simulation nonPSD Input, 0 mean, near_psd fix - 100,000 simulations, compare input vs output covariance</t>
-  </si>
-  <si>
     <t>Normal Simulation PSD Input, 0 mean, higham fix - 100,000 simulations, compare input vs output covariance</t>
   </si>
   <si>
@@ -155,48 +148,45 @@
     <t>Fit Normal Distribution</t>
   </si>
   <si>
+    <t>test7_1.csv</t>
+  </si>
+  <si>
     <t>Fit T Distribution</t>
   </si>
   <si>
+    <t>test7_2.csv</t>
+  </si>
+  <si>
     <t>T Regression</t>
   </si>
   <si>
+    <t>test7_3.csv</t>
+  </si>
+  <si>
     <t>Var from Normal Distribution</t>
   </si>
   <si>
     <t>Var from T Distribution</t>
   </si>
   <si>
+    <t>VaR from Simulation -- compare to 8.2 values</t>
+  </si>
+  <si>
     <t>ES From Normal Distribution</t>
   </si>
   <si>
     <t>ES from T Distribution</t>
   </si>
   <si>
-    <t>test7_1.csv</t>
-  </si>
-  <si>
-    <t>test7_2.csv</t>
-  </si>
-  <si>
-    <t>test7_3.csv</t>
-  </si>
-  <si>
-    <t>VaR from Simulation -- compare to 8.2 values</t>
-  </si>
-  <si>
     <t>ES from Simulation -- compare to 8.5 values</t>
   </si>
   <si>
+    <t>VaR/ES on 2 levels from simulated values - Copula</t>
+  </si>
+  <si>
     <t>test9_1_portfolio.csv, test9_1_returns.csv</t>
   </si>
   <si>
-    <t>VaR/ES on 2 levels from simulated values - Copula</t>
-  </si>
-  <si>
-    <t>Covariance with EW Variance (l=0.97), EW Correlation (l=0.94)</t>
-  </si>
-  <si>
     <t>Risk Parity, Normal Assumption</t>
   </si>
   <si>
@@ -227,40 +217,389 @@
     <t>European Options GBSM including Greeks</t>
   </si>
   <si>
+    <t>test12_1.csv</t>
+  </si>
+  <si>
     <t>American Options with continuous Dividends including Greeks</t>
   </si>
   <si>
-    <t>test12_1.csv</t>
+    <t xml:space="preserve">American Options with discreet Dividends </t>
   </si>
   <si>
     <t>test12_3.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">American Options with discreet Dividends </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -268,30 +607,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,7 +970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -372,7 +1005,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -546,47 +1179,42 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="61.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" ht="17" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1.1000000000000001</v>
+    </row>
+    <row r="2" ht="17" spans="1:4">
+      <c r="A2" s="2">
+        <v>1.1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
@@ -599,8 +1227,8 @@
         <v>testout_1.1.csv</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" ht="17" spans="1:4">
+      <c r="A3" s="2">
         <v>1.2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -614,8 +1242,8 @@
         <v>testout_1.2.csv</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" ht="17" spans="1:4">
+      <c r="A4" s="2">
         <v>1.3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -629,8 +1257,8 @@
         <v>testout_1.3.csv</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" ht="17" spans="1:4">
+      <c r="A5" s="2">
         <v>1.4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -644,157 +1272,157 @@
         <v>testout_1.4.csv</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" ht="17" spans="1:4">
+      <c r="A6" s="2">
         <v>2.1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>testout_2.1.csv</v>
+      </c>
+    </row>
+    <row r="7" ht="17" spans="1:4">
+      <c r="A7" s="2">
+        <v>2.2</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>testout_2.1.csv</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v>testout_2.2.csv</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2.2999999999999998</v>
+    <row r="8" ht="17" spans="1:4">
+      <c r="A8" s="2">
+        <v>2.3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
         <v>testout_2.3.csv</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" ht="17" spans="1:4">
+      <c r="A9" s="2">
         <v>3.1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>testout_3.1.csv</v>
+      </c>
+    </row>
+    <row r="10" ht="17" spans="1:4">
+      <c r="A10" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>testout_3.1.csv</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>3.2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>testout_3.2.csv</v>
+      </c>
+    </row>
+    <row r="11" ht="17" spans="1:4">
+      <c r="A11" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>testout_3.2.csv</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>3.3</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>testout_3.3.csv</v>
+      </c>
+    </row>
+    <row r="12" ht="17" spans="1:4">
+      <c r="A12" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>testout_3.3.csv</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>3.4</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
         <v>testout_3.4.csv</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>4.0999999999999996</v>
+    <row r="13" ht="17" spans="1:4">
+      <c r="A13" s="2">
+        <v>4.1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
         <v>testout_4.1.csv</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" ht="34" spans="1:4">
       <c r="A14">
-        <v>5.0999999999999996</v>
+        <v>5.1</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
         <v>testout_5.1.csv</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" ht="34" spans="1:4">
       <c r="A15">
         <v>5.2</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
         <v>testout_5.2.csv</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" ht="34" spans="1:4">
       <c r="A16">
         <v>5.3</v>
       </c>
@@ -802,209 +1430,209 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
         <v>testout_5.3.csv</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" ht="34" spans="1:4">
       <c r="A17">
         <v>5.4</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
         <v>testout_5.4.csv</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="18" ht="34" spans="1:4">
       <c r="A18">
         <v>5.5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
         <v>testout_5.5.csv</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" ht="17" spans="1:4">
+      <c r="A19" s="2">
         <v>6.1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
         <v>testout_6.1.csv</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" ht="17" spans="1:4">
+      <c r="A20" s="2">
         <v>6.2</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
         <v>testout_6.2.csv</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" ht="17" spans="1:4">
       <c r="A21">
         <v>7.1</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D21" t="str">
         <f t="shared" si="0"/>
         <v>testout_7.1.csv</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" ht="17" spans="1:4">
       <c r="A22">
         <v>7.2</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" si="0"/>
         <v>testout_7.2.csv</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" ht="17" spans="1:4">
       <c r="A23">
         <v>7.3</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v>testout_7.3.csv</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" ht="17" spans="1:4">
       <c r="A24">
         <v>8.1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" si="0"/>
         <v>testout_8.1.csv</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" ht="17" spans="1:4">
       <c r="A25">
-        <v>8.1999999999999993</v>
+        <v>8.2</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
         <v>35</v>
       </c>
-      <c r="C25" t="s">
-        <v>39</v>
-      </c>
       <c r="D25" t="str">
         <f t="shared" si="0"/>
         <v>testout_8.2.csv</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" ht="17" spans="1:4">
       <c r="A26">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D26" t="str">
         <f t="shared" si="0"/>
         <v>testout_8.3.csv</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" ht="17" spans="1:4">
       <c r="A27">
         <v>8.4</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D27" t="str">
         <f t="shared" si="0"/>
         <v>testout_8.4.csv</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" ht="17" spans="1:4">
       <c r="A28">
         <v>8.5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D28" t="str">
         <f t="shared" si="0"/>
         <v>testout_8.5.csv</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" ht="17" spans="1:4">
       <c r="A29">
         <v>8.6</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D29" t="str">
         <f t="shared" si="0"/>
         <v>testout_8.6.csv</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" ht="34" spans="1:4">
       <c r="A30">
         <v>9.1</v>
       </c>
@@ -1012,14 +1640,14 @@
         <v>44</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D30" t="str">
         <f t="shared" si="0"/>
         <v>testout_9.1.csv</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" ht="17" spans="1:4">
       <c r="A31">
         <v>10.1</v>
       </c>
@@ -1027,29 +1655,29 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>testout_10.1.csv</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" ht="17" spans="1:4">
       <c r="A32">
-        <v>10.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" si="0"/>
         <v>testout_10.2.csv</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" ht="34" spans="1:4">
       <c r="A33">
         <v>10.3</v>
       </c>
@@ -1064,7 +1692,7 @@
         <v>testout_10.3.csv</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" ht="34" spans="1:4">
       <c r="A34">
         <v>10.4</v>
       </c>
@@ -1079,7 +1707,7 @@
         <v>testout_10.4.csv</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" ht="34" spans="1:4">
       <c r="A35">
         <v>11.1</v>
       </c>
@@ -1094,7 +1722,7 @@
         <v>testout_11.1.csv</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="36" ht="101" spans="1:4">
       <c r="A36">
         <v>11.2</v>
       </c>
@@ -1109,7 +1737,7 @@
         <v>testout_11.2.csv</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" ht="17" spans="1:4">
       <c r="A37">
         <v>12.1</v>
       </c>
@@ -1117,37 +1745,37 @@
         <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>testout_12.1.csv</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" ht="17" spans="1:4">
       <c r="A38">
         <v>12.2</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D38" t="str">
         <f t="shared" si="0"/>
         <v>testout_12.2.csv</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" ht="17" spans="1:4">
       <c r="A39">
         <v>12.3</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D39" t="str">
         <f t="shared" si="0"/>
@@ -1156,6 +1784,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>